--- a/biology/Botanique/Parc_Henry-Chabert/Parc_Henry-Chabert.xlsx
+++ b/biology/Botanique/Parc_Henry-Chabert/Parc_Henry-Chabert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc de Gerland Henry-Chabert, anciennement parc de Gerland aussi appelé parc du Confluent, est un espace vert de Lyon, en France. Situé au sud de la ville, sur un ancien terrain industriel[1], il est dédié aux loisirs et aux activités sportives sur près de 18 hectares. Le 19 décembre 2019, le conseil municipal de Lyon décide de baptiser le parc du nom de l'homme politique Henry Chabert (1945-2017)[2].
+Le parc de Gerland Henry-Chabert, anciennement parc de Gerland aussi appelé parc du Confluent, est un espace vert de Lyon, en France. Situé au sud de la ville, sur un ancien terrain industriel, il est dédié aux loisirs et aux activités sportives sur près de 18 hectares. Le 19 décembre 2019, le conseil municipal de Lyon décide de baptiser le parc du nom de l'homme politique Henry Chabert (1945-2017).
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Projet lancé en 1996, il devait occuper à terme 80 hectares dédiés aux loisirs, aux activités sportives et à la découverte de la flore[3]. Les deux premières phases de réalisation, respectivement achevées en 2000 et 2006, ont été confiées à l'architecte-paysagiste Michel Corajoud. La maîtrise d'ouvrage du parc étant confiée au Grand Lyon.
-Le parc de Gerland Henry-Chabert possède deux plaines, une série d'aires de jeux et d'espaces cloisonnés, un skatepark et un jardin botanique baptisé “Megaphorbiaie”[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Projet lancé en 1996, il devait occuper à terme 80 hectares dédiés aux loisirs, aux activités sportives et à la découverte de la flore. Les deux premières phases de réalisation, respectivement achevées en 2000 et 2006, ont été confiées à l'architecte-paysagiste Michel Corajoud. La maîtrise d'ouvrage du parc étant confiée au Grand Lyon.
+Le parc de Gerland Henry-Chabert possède deux plaines, une série d'aires de jeux et d'espaces cloisonnés, un skatepark et un jardin botanique baptisé “Megaphorbiaie”.
 Il est classé Eco Jardin et Jardin Remarquable.
-Situé à proximité du stade de Gerland, ce parc a accueilli les finales du championnat de France de tir à l'arc en 2007[réf. nécessaire] et 2012[5],[6].
+Situé à proximité du stade de Gerland, ce parc a accueilli les finales du championnat de France de tir à l'arc en 2007[réf. nécessaire] et 2012,.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Direction Régionale des Affaires Culturelles, « Le parc de Gerland », rhone-alpes.culture.gouv.fr (consulté le 5 janvier 2012)
